--- a/Parameters/transport_parameters.xlsx
+++ b/Parameters/transport_parameters.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mans3904/Documents/GitHub/GEOH2-private/Parameters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engs1825\Documents\GitHub\GeoH2\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7257CA11-2058-C947-88B1-62C5B507FA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D50B8E-139F-4295-AEF5-ECB3A2E85CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="10000" windowHeight="14480" xr2:uid="{01CAD706-003C-4A74-9F03-CC297AE4FC2E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{01CAD706-003C-4A74-9F03-CC297AE4FC2E}"/>
   </bookViews>
   <sheets>
     <sheet name="500 bar" sheetId="1" r:id="rId1"/>
     <sheet name="LH2" sheetId="2" r:id="rId2"/>
     <sheet name="LOHC" sheetId="3" r:id="rId3"/>
     <sheet name="NH3" sheetId="4" r:id="rId4"/>
+    <sheet name="CuConcentrate" sheetId="5" r:id="rId5"/>
+    <sheet name="CuAnode" sheetId="6" r:id="rId6"/>
+    <sheet name="CuCathode" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,8 +33,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="17">
   <si>
     <t>Parameter</t>
   </si>
@@ -87,6 +88,9 @@
   </si>
   <si>
     <t>Loading unloading time (h)</t>
+  </si>
+  <si>
+    <t>Net capacity (kg)</t>
   </si>
 </sst>
 </file>
@@ -440,21 +444,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23198DE7-106D-4D74-B711-F3D7F49409F2}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -462,7 +466,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -470,7 +474,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -478,7 +482,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -486,7 +490,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -494,7 +498,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -502,7 +506,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -510,7 +514,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -518,7 +522,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -526,7 +530,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -534,7 +538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -542,7 +546,7 @@
         <v>660000</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -550,7 +554,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -558,7 +562,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -566,7 +570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -587,17 +591,17 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -605,7 +609,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -613,7 +617,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -621,7 +625,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -629,7 +633,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -637,7 +641,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -645,7 +649,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -653,7 +657,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -661,7 +665,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -669,7 +673,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -677,7 +681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -685,7 +689,7 @@
         <v>860000</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -693,7 +697,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -701,7 +705,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -709,7 +713,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -727,20 +731,20 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -748,7 +752,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -756,7 +760,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -764,7 +768,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -772,7 +776,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -780,7 +784,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -788,7 +792,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -796,7 +800,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -804,7 +808,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -812,7 +816,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -820,7 +824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -828,7 +832,7 @@
         <v>660000</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -836,7 +840,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -844,7 +848,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -852,7 +856,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -870,20 +874,20 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection sqref="A1:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -891,7 +895,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -899,7 +903,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -907,7 +911,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -915,7 +919,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -923,7 +927,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -931,7 +935,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -939,7 +943,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -947,7 +951,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -955,7 +959,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -963,7 +967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -971,7 +975,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -979,7 +983,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -987,7 +991,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -995,12 +999,441 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
         <v>1.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACB09F0-2D3D-4032-8DB9-ED9ACFD36DB6}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2E2DFC-F041-403A-8F39-1E8067EFBCA9}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3CC739-D7C7-4944-B7B3-04035841507B}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Parameters/transport_parameters.xlsx
+++ b/Parameters/transport_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engs1825\Documents\GitHub\GeoH2\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D50B8E-139F-4295-AEF5-ECB3A2E85CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED20DE3-17B6-40FA-BDCC-21ADF820DEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{01CAD706-003C-4A74-9F03-CC297AE4FC2E}"/>
   </bookViews>
@@ -1303,7 +1303,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
